--- a/Code/Results/Cases/Case_1_79/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_79/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9406701231914573</v>
+        <v>1.033366029227542</v>
       </c>
       <c r="D2">
-        <v>1.029642249779684</v>
+        <v>1.026513451475762</v>
       </c>
       <c r="E2">
-        <v>0.9587835942880245</v>
+        <v>1.041296853725589</v>
       </c>
       <c r="F2">
-        <v>0.958790677652307</v>
+        <v>1.049333393264743</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046847012775419</v>
+        <v>1.028140619206563</v>
       </c>
       <c r="J2">
-        <v>0.9647827423474221</v>
+        <v>1.038491151223592</v>
       </c>
       <c r="K2">
-        <v>1.040703507696006</v>
+        <v>1.029335878222186</v>
       </c>
       <c r="L2">
-        <v>0.9708486554631142</v>
+        <v>1.044076768678686</v>
       </c>
       <c r="M2">
-        <v>0.9708556290141843</v>
+        <v>1.052090743175996</v>
       </c>
       <c r="N2">
-        <v>0.9894316961923437</v>
+        <v>1.016359438818662</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9524186050830669</v>
+        <v>1.035456500123056</v>
       </c>
       <c r="D3">
-        <v>1.03121079133331</v>
+        <v>1.026832767717716</v>
       </c>
       <c r="E3">
-        <v>0.9692419938083159</v>
+        <v>1.043210675826196</v>
       </c>
       <c r="F3">
-        <v>0.9702422685813338</v>
+        <v>1.051452051245787</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047082302303658</v>
+        <v>1.028119731977348</v>
       </c>
       <c r="J3">
-        <v>0.9742961429359164</v>
+        <v>1.040218527726439</v>
       </c>
       <c r="K3">
-        <v>1.041459311046039</v>
+        <v>1.029464047931006</v>
       </c>
       <c r="L3">
-        <v>0.9802841676473346</v>
+        <v>1.045798295184488</v>
       </c>
       <c r="M3">
-        <v>0.9812706174023301</v>
+        <v>1.054018255724803</v>
       </c>
       <c r="N3">
-        <v>0.9929555615789046</v>
+        <v>1.016972109842518</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9596667929265295</v>
+        <v>1.036804338530668</v>
       </c>
       <c r="D4">
-        <v>1.032206919829202</v>
+        <v>1.027038990663314</v>
       </c>
       <c r="E4">
-        <v>0.9757032499612419</v>
+        <v>1.044444645201334</v>
       </c>
       <c r="F4">
-        <v>0.9773197444983338</v>
+        <v>1.052818661432289</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047219142987687</v>
+        <v>1.028104546995959</v>
       </c>
       <c r="J4">
-        <v>0.9801616929219897</v>
+        <v>1.041331346126495</v>
       </c>
       <c r="K4">
-        <v>1.041931574488913</v>
+        <v>1.029545830079758</v>
       </c>
       <c r="L4">
-        <v>0.9861040388340179</v>
+        <v>1.046907440178718</v>
       </c>
       <c r="M4">
-        <v>0.9876998335070293</v>
+        <v>1.055260824523872</v>
       </c>
       <c r="N4">
-        <v>0.9951252939962186</v>
+        <v>1.017365833892181</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9626369232228098</v>
+        <v>1.037369841693726</v>
       </c>
       <c r="D5">
-        <v>1.032621214092848</v>
+        <v>1.027125589626533</v>
       </c>
       <c r="E5">
-        <v>0.9783528230347583</v>
+        <v>1.044962378131683</v>
       </c>
       <c r="F5">
-        <v>0.9802227022168312</v>
+        <v>1.053392182731227</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047272985406224</v>
+        <v>1.028097762610924</v>
       </c>
       <c r="J5">
-        <v>0.9825642106938938</v>
+        <v>1.041798024285772</v>
       </c>
       <c r="K5">
-        <v>1.042126105599354</v>
+        <v>1.029579933844558</v>
       </c>
       <c r="L5">
-        <v>0.9884883668270308</v>
+        <v>1.047372600427122</v>
       </c>
       <c r="M5">
-        <v>0.9903350710637385</v>
+        <v>1.055782111355798</v>
       </c>
       <c r="N5">
-        <v>0.9960131695381308</v>
+        <v>1.017530713907021</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9631313086352351</v>
+        <v>1.03746472686782</v>
       </c>
       <c r="D6">
-        <v>1.03269051411446</v>
+        <v>1.027140124207022</v>
       </c>
       <c r="E6">
-        <v>0.978793956658047</v>
+        <v>1.045049248248012</v>
       </c>
       <c r="F6">
-        <v>0.9807060647623946</v>
+        <v>1.053488421571141</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047281809749891</v>
+        <v>1.028096599963332</v>
       </c>
       <c r="J6">
-        <v>0.982964050311198</v>
+        <v>1.04187631483863</v>
       </c>
       <c r="K6">
-        <v>1.042158533491345</v>
+        <v>1.029585643700014</v>
       </c>
       <c r="L6">
-        <v>0.9888852087019288</v>
+        <v>1.047450637651736</v>
       </c>
       <c r="M6">
-        <v>0.9907737489818044</v>
+        <v>1.055869574615349</v>
       </c>
       <c r="N6">
-        <v>0.9961608810379829</v>
+        <v>1.01755836060787</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9597067731935055</v>
+        <v>1.036811899204402</v>
       </c>
       <c r="D7">
-        <v>1.032212473207964</v>
+        <v>1.027040148187642</v>
       </c>
       <c r="E7">
-        <v>0.9757389080036764</v>
+        <v>1.0444515671777</v>
       </c>
       <c r="F7">
-        <v>0.9773588097804041</v>
+        <v>1.052826328749198</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047219876909364</v>
+        <v>1.028104457917983</v>
       </c>
       <c r="J7">
-        <v>0.980194037003067</v>
+        <v>1.0413375863911</v>
       </c>
       <c r="K7">
-        <v>1.04193418955789</v>
+        <v>1.029546286868134</v>
       </c>
       <c r="L7">
-        <v>0.9861361360194602</v>
+        <v>1.046913660057774</v>
       </c>
       <c r="M7">
-        <v>0.9877353033046444</v>
+        <v>1.055267794227486</v>
       </c>
       <c r="N7">
-        <v>0.9951372506112881</v>
+        <v>1.017368039536576</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9447188716536044</v>
+        <v>1.034073532951003</v>
       </c>
       <c r="D8">
-        <v>1.030176260413161</v>
+        <v>1.026621446480098</v>
       </c>
       <c r="E8">
-        <v>0.9623856726026698</v>
+        <v>1.041944565930772</v>
       </c>
       <c r="F8">
-        <v>0.9627343128094416</v>
+        <v>1.050050311958026</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04692972229462</v>
+        <v>1.02813390540539</v>
       </c>
       <c r="J8">
-        <v>0.9680619314356612</v>
+        <v>1.039075957746021</v>
       </c>
       <c r="K8">
-        <v>1.040962419099498</v>
+        <v>1.029379431388346</v>
       </c>
       <c r="L8">
-        <v>0.9741004678994125</v>
+        <v>1.04465957474345</v>
       </c>
       <c r="M8">
-        <v>0.9744439069496231</v>
+        <v>1.052743136263629</v>
       </c>
       <c r="N8">
-        <v>0.990646877182158</v>
+        <v>1.016567061135038</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9151748993590451</v>
+        <v>1.029209801128964</v>
       </c>
       <c r="D9">
-        <v>1.026442710141579</v>
+        <v>1.025880711243438</v>
       </c>
       <c r="E9">
-        <v>0.9361545166681805</v>
+        <v>1.037492025308604</v>
       </c>
       <c r="F9">
-        <v>0.9340243381568711</v>
+        <v>1.045124365226372</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046300249603783</v>
+        <v>1.02817304963526</v>
       </c>
       <c r="J9">
-        <v>0.9441248047241557</v>
+        <v>1.035051958522594</v>
       </c>
       <c r="K9">
-        <v>1.03912086127245</v>
+        <v>1.029076656696341</v>
       </c>
       <c r="L9">
-        <v>0.9503759710565585</v>
+        <v>1.040649743577527</v>
       </c>
       <c r="M9">
-        <v>0.9482869259773931</v>
+        <v>1.048257462646569</v>
       </c>
       <c r="N9">
-        <v>0.9817702740422682</v>
+        <v>1.015134458890293</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8926104190860664</v>
+        <v>1.025939617291363</v>
       </c>
       <c r="D10">
-        <v>1.023853917626846</v>
+        <v>1.025385058414673</v>
       </c>
       <c r="E10">
-        <v>0.9162101577309053</v>
+        <v>1.034498556500015</v>
       </c>
       <c r="F10">
-        <v>0.9122014266075987</v>
+        <v>1.041815550827719</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045800826930256</v>
+        <v>1.028190631074268</v>
       </c>
       <c r="J10">
-        <v>0.9258434061875614</v>
+        <v>1.032341682945349</v>
       </c>
       <c r="K10">
-        <v>1.037805436977404</v>
+        <v>1.02886901662911</v>
       </c>
       <c r="L10">
-        <v>0.9322771519359967</v>
+        <v>1.037949528146233</v>
       </c>
       <c r="M10">
-        <v>0.9283601017877225</v>
+        <v>1.045240498997322</v>
       </c>
       <c r="N10">
-        <v>0.974992910916715</v>
+        <v>1.014164613834184</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8819158412008384</v>
+        <v>1.024516597594767</v>
       </c>
       <c r="D11">
-        <v>1.022708820873849</v>
+        <v>1.025170031100778</v>
       </c>
       <c r="E11">
-        <v>0.9067873154486277</v>
+        <v>1.033196024245224</v>
       </c>
       <c r="F11">
-        <v>0.9018904358710491</v>
+        <v>1.040376494231811</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045565562565124</v>
+        <v>1.028196236062541</v>
       </c>
       <c r="J11">
-        <v>0.9171842076014292</v>
+        <v>1.031161200832587</v>
       </c>
       <c r="K11">
-        <v>1.037214823105151</v>
+        <v>1.028777753015332</v>
       </c>
       <c r="L11">
-        <v>0.9237107128586058</v>
+        <v>1.036773553826061</v>
       </c>
       <c r="M11">
-        <v>0.9189344155542704</v>
+        <v>1.043927448861385</v>
       </c>
       <c r="N11">
-        <v>0.9717872094098993</v>
+        <v>1.013741033680938</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8777755549434745</v>
+        <v>1.023986934918851</v>
       </c>
       <c r="D12">
-        <v>1.022279813821027</v>
+        <v>1.025090101753861</v>
       </c>
       <c r="E12">
-        <v>0.9031448295958915</v>
+        <v>1.032711220915079</v>
       </c>
       <c r="F12">
-        <v>0.8979042947929057</v>
+        <v>1.039840979805725</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045475309823012</v>
+        <v>1.028198017265132</v>
       </c>
       <c r="J12">
-        <v>0.9138333077145443</v>
+        <v>1.030721647574989</v>
       </c>
       <c r="K12">
-        <v>1.036992263729265</v>
+        <v>1.028743651841878</v>
       </c>
       <c r="L12">
-        <v>0.9203968193082218</v>
+        <v>1.036335698255753</v>
       </c>
       <c r="M12">
-        <v>0.9152889499180735</v>
+        <v>1.043438686032643</v>
       </c>
       <c r="N12">
-        <v>0.9705477918726503</v>
+        <v>1.013583141053325</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8786718251183243</v>
+        <v>1.024100599274606</v>
       </c>
       <c r="D13">
-        <v>1.022372003920659</v>
+        <v>1.025107249484422</v>
       </c>
       <c r="E13">
-        <v>0.903933074213472</v>
+        <v>1.032815257965506</v>
       </c>
       <c r="F13">
-        <v>0.8987669269977022</v>
+        <v>1.039955894605354</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045494799145108</v>
+        <v>1.028197648785466</v>
       </c>
       <c r="J13">
-        <v>0.9145586201279342</v>
+        <v>1.030815982143403</v>
       </c>
       <c r="K13">
-        <v>1.037040147666441</v>
+        <v>1.028750975765279</v>
       </c>
       <c r="L13">
-        <v>0.9211140684616013</v>
+        <v>1.036429667602273</v>
       </c>
       <c r="M13">
-        <v>0.9160779278678318</v>
+        <v>1.043543574808476</v>
       </c>
       <c r="N13">
-        <v>0.9708160094506497</v>
+        <v>1.013617034894785</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8815772292666414</v>
+        <v>1.024472837959735</v>
       </c>
       <c r="D14">
-        <v>1.022673434071068</v>
+        <v>1.025163425298077</v>
       </c>
       <c r="E14">
-        <v>0.9064892995739268</v>
+        <v>1.033155970530062</v>
       </c>
       <c r="F14">
-        <v>0.9015643116167841</v>
+        <v>1.040332248738053</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045558160746259</v>
+        <v>1.028196389426981</v>
       </c>
       <c r="J14">
-        <v>0.9169101229006712</v>
+        <v>1.031124889223288</v>
       </c>
       <c r="K14">
-        <v>1.037196491250169</v>
+        <v>1.028774938309027</v>
       </c>
       <c r="L14">
-        <v>0.9234396315964323</v>
+        <v>1.036737382070019</v>
       </c>
       <c r="M14">
-        <v>0.9186361951214297</v>
+        <v>1.043887068933161</v>
       </c>
       <c r="N14">
-        <v>0.9716858068204445</v>
+        <v>1.013727993633358</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8833440775647818</v>
+        <v>1.024702040976964</v>
       </c>
       <c r="D15">
-        <v>1.022858667935695</v>
+        <v>1.025198029374265</v>
       </c>
       <c r="E15">
-        <v>0.9080445473252733</v>
+        <v>1.033365763308621</v>
       </c>
       <c r="F15">
-        <v>0.9032662328231853</v>
+        <v>1.040564001381583</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045596819989582</v>
+        <v>1.028195573671256</v>
       </c>
       <c r="J15">
-        <v>0.9183403344068528</v>
+        <v>1.031315074403884</v>
       </c>
       <c r="K15">
-        <v>1.037292397812508</v>
+        <v>1.028789675730796</v>
       </c>
       <c r="L15">
-        <v>0.9248542165661261</v>
+        <v>1.036926835544606</v>
       </c>
       <c r="M15">
-        <v>0.9201924332920114</v>
+        <v>1.044098568512557</v>
       </c>
       <c r="N15">
-        <v>0.9722149870016802</v>
+        <v>1.013796284965319</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8932984378344824</v>
+        <v>1.02603390762909</v>
       </c>
       <c r="D16">
-        <v>1.023929401978527</v>
+        <v>1.025399320714895</v>
       </c>
       <c r="E16">
-        <v>0.9168170417698949</v>
+        <v>1.034584864946816</v>
       </c>
       <c r="F16">
-        <v>0.9128654815013677</v>
+        <v>1.041910920141611</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045816039370124</v>
+        <v>1.028190216864643</v>
       </c>
       <c r="J16">
-        <v>0.926400637187088</v>
+        <v>1.032419879352862</v>
       </c>
       <c r="K16">
-        <v>1.037844189381429</v>
+        <v>1.028875045105079</v>
       </c>
       <c r="L16">
-        <v>0.9328285538583383</v>
+        <v>1.038027428624988</v>
       </c>
       <c r="M16">
-        <v>0.9289669270623233</v>
+        <v>1.04532749814416</v>
       </c>
       <c r="N16">
-        <v>0.9751993268199133</v>
+        <v>1.014192648055195</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C17">
-        <v>0.8992773124888894</v>
+        <v>1.02686745018941</v>
       </c>
       <c r="D17">
-        <v>1.024594555421631</v>
+        <v>1.025525478374841</v>
       </c>
       <c r="E17">
-        <v>0.9220942304035654</v>
+        <v>1.035347855050772</v>
       </c>
       <c r="F17">
-        <v>0.9186397130791982</v>
+        <v>1.042754090270336</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045948454076321</v>
+        <v>1.028186319765488</v>
       </c>
       <c r="J17">
-        <v>0.931243612712083</v>
+        <v>1.03311102144153</v>
       </c>
       <c r="K17">
-        <v>1.038184670434247</v>
+        <v>1.02892823368536</v>
       </c>
       <c r="L17">
-        <v>0.9376215732635738</v>
+        <v>1.038715969682559</v>
       </c>
       <c r="M17">
-        <v>0.9342423605235717</v>
+        <v>1.046096560209594</v>
       </c>
       <c r="N17">
-        <v>0.9769938506536489</v>
+        <v>1.014440296640642</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9026778829155593</v>
+        <v>1.027352967761147</v>
       </c>
       <c r="D18">
-        <v>1.024980202627936</v>
+        <v>1.025599024633332</v>
       </c>
       <c r="E18">
-        <v>0.9250983657589541</v>
+        <v>1.035792284708298</v>
       </c>
       <c r="F18">
-        <v>0.9219267607558133</v>
+        <v>1.043245289960371</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046023855691627</v>
+        <v>1.02818385285959</v>
       </c>
       <c r="J18">
-        <v>0.9339985713914327</v>
+        <v>1.033513487843186</v>
       </c>
       <c r="K18">
-        <v>1.038381239943934</v>
+        <v>1.02895912692504</v>
       </c>
       <c r="L18">
-        <v>0.9403486750473912</v>
+        <v>1.039116933547572</v>
       </c>
       <c r="M18">
-        <v>0.9372444943333254</v>
+        <v>1.046544498368184</v>
       </c>
       <c r="N18">
-        <v>0.9780150546377691</v>
+        <v>1.014584396272636</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9038234088435798</v>
+        <v>1.027518403541067</v>
       </c>
       <c r="D19">
-        <v>1.025111305138276</v>
+        <v>1.025624095254975</v>
       </c>
       <c r="E19">
-        <v>0.926110774697618</v>
+        <v>1.035943721312831</v>
       </c>
       <c r="F19">
-        <v>0.9230345120150591</v>
+        <v>1.043412674438442</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046049254932268</v>
+        <v>1.028182978809425</v>
       </c>
       <c r="J19">
-        <v>0.9349266757720883</v>
+        <v>1.033650606598615</v>
       </c>
       <c r="K19">
-        <v>1.038447921787886</v>
+        <v>1.028969638492465</v>
       </c>
       <c r="L19">
-        <v>0.9412674859090916</v>
+        <v>1.039253542438254</v>
       </c>
       <c r="M19">
-        <v>0.9382560638659401</v>
+        <v>1.04669712568265</v>
       </c>
       <c r="N19">
-        <v>0.9783591359048145</v>
+        <v>1.014633471543508</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8986449962393929</v>
+        <v>1.026778088910315</v>
       </c>
       <c r="D20">
-        <v>1.024523431589315</v>
+        <v>1.025511946906639</v>
       </c>
       <c r="E20">
-        <v>0.9215358398098868</v>
+        <v>1.035266056715309</v>
       </c>
       <c r="F20">
-        <v>0.9180287347823025</v>
+        <v>1.042663689154085</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045934436955818</v>
+        <v>1.028186757925705</v>
       </c>
       <c r="J20">
-        <v>0.9307313770056441</v>
+        <v>1.033036937450378</v>
       </c>
       <c r="K20">
-        <v>1.038148349877796</v>
+        <v>1.028922540567341</v>
       </c>
       <c r="L20">
-        <v>0.9371145617617148</v>
+        <v>1.038642163243583</v>
       </c>
       <c r="M20">
-        <v>0.9336842615670922</v>
+        <v>1.046014113847933</v>
       </c>
       <c r="N20">
-        <v>0.9768040039104225</v>
+        <v>1.014413762527972</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8807265736020999</v>
+        <v>1.024363253327552</v>
       </c>
       <c r="D21">
-        <v>1.022584771977218</v>
+        <v>1.025146884520153</v>
       </c>
       <c r="E21">
-        <v>0.9057407197589104</v>
+        <v>1.03305566662043</v>
       </c>
       <c r="F21">
-        <v>0.9007451206861358</v>
+        <v>1.040221449297817</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045539581499645</v>
+        <v>1.028196768571165</v>
       </c>
       <c r="J21">
-        <v>0.9162215964727223</v>
+        <v>1.03103395356437</v>
       </c>
       <c r="K21">
-        <v>1.037150539886922</v>
+        <v>1.028767887494854</v>
       </c>
       <c r="L21">
-        <v>0.9227586684903754</v>
+        <v>1.036646796958579</v>
       </c>
       <c r="M21">
-        <v>0.9178870706121631</v>
+        <v>1.043785947385488</v>
       </c>
       <c r="N21">
-        <v>0.9714310934524547</v>
+        <v>1.01369533448756</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8684672939090643</v>
+        <v>1.022838626403462</v>
       </c>
       <c r="D22">
-        <v>1.02134462109487</v>
+        <v>1.024917017289605</v>
       </c>
       <c r="E22">
-        <v>0.894967274828626</v>
+        <v>1.031660192195374</v>
       </c>
       <c r="F22">
-        <v>0.8889542587254354</v>
+        <v>1.038680200795731</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045274738750163</v>
+        <v>1.028201323127522</v>
       </c>
       <c r="J22">
-        <v>0.9063032408825072</v>
+        <v>1.029768393883549</v>
       </c>
       <c r="K22">
-        <v>1.036504773176328</v>
+        <v>1.028669484195791</v>
       </c>
       <c r="L22">
-        <v>0.912952217733066</v>
+        <v>1.035386161784353</v>
       </c>
       <c r="M22">
-        <v>0.9071009122119746</v>
+        <v>1.042378990933125</v>
       </c>
       <c r="N22">
-        <v>0.967765265441863</v>
+        <v>1.013240407459075</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8750727083741107</v>
+        <v>1.023647471882663</v>
       </c>
       <c r="D23">
-        <v>1.022004076002786</v>
+        <v>1.025038905493158</v>
       </c>
       <c r="E23">
-        <v>0.900768643858448</v>
+        <v>1.032400512166615</v>
       </c>
       <c r="F23">
-        <v>0.8953037939328521</v>
+        <v>1.039497799546493</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045416711806118</v>
+        <v>1.028199073251875</v>
       </c>
       <c r="J23">
-        <v>0.9116462759448937</v>
+        <v>1.030439889504659</v>
       </c>
       <c r="K23">
-        <v>1.036848857809568</v>
+        <v>1.028721759700692</v>
       </c>
       <c r="L23">
-        <v>0.9182342793467797</v>
+        <v>1.036055033862706</v>
       </c>
       <c r="M23">
-        <v>0.9129102582731305</v>
+        <v>1.043125427002243</v>
       </c>
       <c r="N23">
-        <v>0.969739239463748</v>
+        <v>1.013481881958444</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.89893097890454</v>
+        <v>1.026818469506129</v>
       </c>
       <c r="D24">
-        <v>1.024555576572009</v>
+        <v>1.025518061316702</v>
       </c>
       <c r="E24">
-        <v>0.9217883792982158</v>
+        <v>1.035303019744479</v>
       </c>
       <c r="F24">
-        <v>0.9183050578540897</v>
+        <v>1.042704539402101</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045940776355194</v>
+        <v>1.028186560538906</v>
       </c>
       <c r="J24">
-        <v>0.9309630485402194</v>
+        <v>1.033070414871011</v>
       </c>
       <c r="K24">
-        <v>1.038164767837821</v>
+        <v>1.028925113446604</v>
       </c>
       <c r="L24">
-        <v>0.9373438687776586</v>
+        <v>1.038675515205249</v>
       </c>
       <c r="M24">
-        <v>0.9339366722733298</v>
+        <v>1.046051369794693</v>
       </c>
       <c r="N24">
-        <v>0.9768898657472161</v>
+        <v>1.01442575323124</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9232517713609102</v>
+        <v>1.030471933579147</v>
       </c>
       <c r="D25">
-        <v>1.027425357429848</v>
+        <v>1.026072541693807</v>
       </c>
       <c r="E25">
-        <v>0.9433130748662576</v>
+        <v>1.03864741647204</v>
       </c>
       <c r="F25">
-        <v>0.9418578224267289</v>
+        <v>1.046402085227728</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046477018129713</v>
+        <v>1.028164434695646</v>
       </c>
       <c r="J25">
-        <v>0.9506700370390733</v>
+        <v>1.03609700809811</v>
       </c>
       <c r="K25">
-        <v>1.039612341487524</v>
+        <v>1.029155958733625</v>
       </c>
       <c r="L25">
-        <v>0.9568601134378952</v>
+        <v>1.041691023941352</v>
       </c>
       <c r="M25">
-        <v>0.9554311716717019</v>
+        <v>1.049421663745579</v>
       </c>
       <c r="N25">
-        <v>0.9841981867300598</v>
+        <v>1.015507385343153</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_79/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_79/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033366029227542</v>
+        <v>0.9406701231914563</v>
       </c>
       <c r="D2">
-        <v>1.026513451475762</v>
+        <v>1.029642249779684</v>
       </c>
       <c r="E2">
-        <v>1.041296853725589</v>
+        <v>0.9587835942880237</v>
       </c>
       <c r="F2">
-        <v>1.049333393264743</v>
+        <v>0.9587906776523054</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028140619206563</v>
+        <v>1.046847012775419</v>
       </c>
       <c r="J2">
-        <v>1.038491151223592</v>
+        <v>0.9647827423474211</v>
       </c>
       <c r="K2">
-        <v>1.029335878222186</v>
+        <v>1.040703507696006</v>
       </c>
       <c r="L2">
-        <v>1.044076768678686</v>
+        <v>0.9708486554631133</v>
       </c>
       <c r="M2">
-        <v>1.052090743175996</v>
+        <v>0.970855629014183</v>
       </c>
       <c r="N2">
-        <v>1.016359438818662</v>
+        <v>0.9894316961923433</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035456500123056</v>
+        <v>0.9524186050830666</v>
       </c>
       <c r="D3">
-        <v>1.026832767717716</v>
+        <v>1.03121079133331</v>
       </c>
       <c r="E3">
-        <v>1.043210675826196</v>
+        <v>0.9692419938083158</v>
       </c>
       <c r="F3">
-        <v>1.051452051245787</v>
+        <v>0.9702422685813336</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028119731977348</v>
+        <v>1.047082302303657</v>
       </c>
       <c r="J3">
-        <v>1.040218527726439</v>
+        <v>0.9742961429359163</v>
       </c>
       <c r="K3">
-        <v>1.029464047931006</v>
+        <v>1.041459311046039</v>
       </c>
       <c r="L3">
-        <v>1.045798295184488</v>
+        <v>0.9802841676473344</v>
       </c>
       <c r="M3">
-        <v>1.054018255724803</v>
+        <v>0.9812706174023297</v>
       </c>
       <c r="N3">
-        <v>1.016972109842518</v>
+        <v>0.9929555615789046</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036804338530668</v>
+        <v>0.9596667929265281</v>
       </c>
       <c r="D4">
-        <v>1.027038990663314</v>
+        <v>1.032206919829202</v>
       </c>
       <c r="E4">
-        <v>1.044444645201334</v>
+        <v>0.9757032499612407</v>
       </c>
       <c r="F4">
-        <v>1.052818661432289</v>
+        <v>0.9773197444983326</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028104546995959</v>
+        <v>1.047219142987687</v>
       </c>
       <c r="J4">
-        <v>1.041331346126495</v>
+        <v>0.9801616929219885</v>
       </c>
       <c r="K4">
-        <v>1.029545830079758</v>
+        <v>1.041931574488913</v>
       </c>
       <c r="L4">
-        <v>1.046907440178718</v>
+        <v>0.9861040388340165</v>
       </c>
       <c r="M4">
-        <v>1.055260824523872</v>
+        <v>0.9876998335070281</v>
       </c>
       <c r="N4">
-        <v>1.017365833892181</v>
+        <v>0.9951252939962184</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037369841693726</v>
+        <v>0.9626369232228107</v>
       </c>
       <c r="D5">
-        <v>1.027125589626533</v>
+        <v>1.032621214092848</v>
       </c>
       <c r="E5">
-        <v>1.044962378131683</v>
+        <v>0.9783528230347592</v>
       </c>
       <c r="F5">
-        <v>1.053392182731227</v>
+        <v>0.9802227022168325</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028097762610924</v>
+        <v>1.047272985406224</v>
       </c>
       <c r="J5">
-        <v>1.041798024285772</v>
+        <v>0.9825642106938949</v>
       </c>
       <c r="K5">
-        <v>1.029579933844558</v>
+        <v>1.042126105599354</v>
       </c>
       <c r="L5">
-        <v>1.047372600427122</v>
+        <v>0.9884883668270319</v>
       </c>
       <c r="M5">
-        <v>1.055782111355798</v>
+        <v>0.9903350710637401</v>
       </c>
       <c r="N5">
-        <v>1.017530713907021</v>
+        <v>0.9960131695381311</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03746472686782</v>
+        <v>0.9631313086352351</v>
       </c>
       <c r="D6">
-        <v>1.027140124207022</v>
+        <v>1.03269051411446</v>
       </c>
       <c r="E6">
-        <v>1.045049248248012</v>
+        <v>0.9787939566580469</v>
       </c>
       <c r="F6">
-        <v>1.053488421571141</v>
+        <v>0.9807060647623944</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028096599963332</v>
+        <v>1.047281809749891</v>
       </c>
       <c r="J6">
-        <v>1.04187631483863</v>
+        <v>0.982964050311198</v>
       </c>
       <c r="K6">
-        <v>1.029585643700014</v>
+        <v>1.042158533491345</v>
       </c>
       <c r="L6">
-        <v>1.047450637651736</v>
+        <v>0.9888852087019285</v>
       </c>
       <c r="M6">
-        <v>1.055869574615349</v>
+        <v>0.9907737489818043</v>
       </c>
       <c r="N6">
-        <v>1.01755836060787</v>
+        <v>0.9961608810379829</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036811899204402</v>
+        <v>0.9597067731935055</v>
       </c>
       <c r="D7">
-        <v>1.027040148187642</v>
+        <v>1.032212473207964</v>
       </c>
       <c r="E7">
-        <v>1.0444515671777</v>
+        <v>0.9757389080036764</v>
       </c>
       <c r="F7">
-        <v>1.052826328749198</v>
+        <v>0.9773588097804041</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028104457917983</v>
+        <v>1.047219876909365</v>
       </c>
       <c r="J7">
-        <v>1.0413375863911</v>
+        <v>0.9801940370030672</v>
       </c>
       <c r="K7">
-        <v>1.029546286868134</v>
+        <v>1.04193418955789</v>
       </c>
       <c r="L7">
-        <v>1.046913660057774</v>
+        <v>0.9861361360194605</v>
       </c>
       <c r="M7">
-        <v>1.055267794227486</v>
+        <v>0.9877353033046444</v>
       </c>
       <c r="N7">
-        <v>1.017368039536576</v>
+        <v>0.995137250611288</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034073532951003</v>
+        <v>0.9447188716536061</v>
       </c>
       <c r="D8">
-        <v>1.026621446480098</v>
+        <v>1.030176260413161</v>
       </c>
       <c r="E8">
-        <v>1.041944565930772</v>
+        <v>0.9623856726026715</v>
       </c>
       <c r="F8">
-        <v>1.050050311958026</v>
+        <v>0.9627343128094433</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02813390540539</v>
+        <v>1.04692972229462</v>
       </c>
       <c r="J8">
-        <v>1.039075957746021</v>
+        <v>0.9680619314356627</v>
       </c>
       <c r="K8">
-        <v>1.029379431388346</v>
+        <v>1.040962419099498</v>
       </c>
       <c r="L8">
-        <v>1.04465957474345</v>
+        <v>0.9741004678994141</v>
       </c>
       <c r="M8">
-        <v>1.052743136263629</v>
+        <v>0.974443906949625</v>
       </c>
       <c r="N8">
-        <v>1.016567061135038</v>
+        <v>0.9906468771821586</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029209801128964</v>
+        <v>0.9151748993590455</v>
       </c>
       <c r="D9">
-        <v>1.025880711243438</v>
+        <v>1.026442710141579</v>
       </c>
       <c r="E9">
-        <v>1.037492025308604</v>
+        <v>0.9361545166681813</v>
       </c>
       <c r="F9">
-        <v>1.045124365226372</v>
+        <v>0.934024338156872</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02817304963526</v>
+        <v>1.046300249603783</v>
       </c>
       <c r="J9">
-        <v>1.035051958522594</v>
+        <v>0.9441248047241561</v>
       </c>
       <c r="K9">
-        <v>1.029076656696341</v>
+        <v>1.03912086127245</v>
       </c>
       <c r="L9">
-        <v>1.040649743577527</v>
+        <v>0.950375971056559</v>
       </c>
       <c r="M9">
-        <v>1.048257462646569</v>
+        <v>0.9482869259773937</v>
       </c>
       <c r="N9">
-        <v>1.015134458890293</v>
+        <v>0.9817702740422684</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025939617291363</v>
+        <v>0.8926104190860673</v>
       </c>
       <c r="D10">
-        <v>1.025385058414673</v>
+        <v>1.023853917626846</v>
       </c>
       <c r="E10">
-        <v>1.034498556500015</v>
+        <v>0.9162101577309062</v>
       </c>
       <c r="F10">
-        <v>1.041815550827719</v>
+        <v>0.9122014266075996</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028190631074268</v>
+        <v>1.045800826930256</v>
       </c>
       <c r="J10">
-        <v>1.032341682945349</v>
+        <v>0.9258434061875622</v>
       </c>
       <c r="K10">
-        <v>1.02886901662911</v>
+        <v>1.037805436977404</v>
       </c>
       <c r="L10">
-        <v>1.037949528146233</v>
+        <v>0.9322771519359977</v>
       </c>
       <c r="M10">
-        <v>1.045240498997322</v>
+        <v>0.9283601017877232</v>
       </c>
       <c r="N10">
-        <v>1.014164613834184</v>
+        <v>0.9749929109167155</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024516597594767</v>
+        <v>0.8819158412008378</v>
       </c>
       <c r="D11">
-        <v>1.025170031100778</v>
+        <v>1.022708820873849</v>
       </c>
       <c r="E11">
-        <v>1.033196024245224</v>
+        <v>0.9067873154486269</v>
       </c>
       <c r="F11">
-        <v>1.040376494231811</v>
+        <v>0.9018904358710484</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028196236062541</v>
+        <v>1.045565562565124</v>
       </c>
       <c r="J11">
-        <v>1.031161200832587</v>
+        <v>0.9171842076014286</v>
       </c>
       <c r="K11">
-        <v>1.028777753015332</v>
+        <v>1.037214823105151</v>
       </c>
       <c r="L11">
-        <v>1.036773553826061</v>
+        <v>0.9237107128586052</v>
       </c>
       <c r="M11">
-        <v>1.043927448861385</v>
+        <v>0.9189344155542699</v>
       </c>
       <c r="N11">
-        <v>1.013741033680938</v>
+        <v>0.9717872094098989</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023986934918851</v>
+        <v>0.8777755549434743</v>
       </c>
       <c r="D12">
-        <v>1.025090101753861</v>
+        <v>1.022279813821028</v>
       </c>
       <c r="E12">
-        <v>1.032711220915079</v>
+        <v>0.9031448295958914</v>
       </c>
       <c r="F12">
-        <v>1.039840979805725</v>
+        <v>0.8979042947929057</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028198017265132</v>
+        <v>1.045475309823012</v>
       </c>
       <c r="J12">
-        <v>1.030721647574989</v>
+        <v>0.9138333077145441</v>
       </c>
       <c r="K12">
-        <v>1.028743651841878</v>
+        <v>1.036992263729265</v>
       </c>
       <c r="L12">
-        <v>1.036335698255753</v>
+        <v>0.9203968193082218</v>
       </c>
       <c r="M12">
-        <v>1.043438686032643</v>
+        <v>0.9152889499180734</v>
       </c>
       <c r="N12">
-        <v>1.013583141053325</v>
+        <v>0.9705477918726501</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024100599274606</v>
+        <v>0.878671825118324</v>
       </c>
       <c r="D13">
-        <v>1.025107249484422</v>
+        <v>1.022372003920659</v>
       </c>
       <c r="E13">
-        <v>1.032815257965506</v>
+        <v>0.9039330742134716</v>
       </c>
       <c r="F13">
-        <v>1.039955894605354</v>
+        <v>0.8987669269977018</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028197648785466</v>
+        <v>1.045494799145108</v>
       </c>
       <c r="J13">
-        <v>1.030815982143403</v>
+        <v>0.9145586201279338</v>
       </c>
       <c r="K13">
-        <v>1.028750975765279</v>
+        <v>1.037040147666441</v>
       </c>
       <c r="L13">
-        <v>1.036429667602273</v>
+        <v>0.9211140684616007</v>
       </c>
       <c r="M13">
-        <v>1.043543574808476</v>
+        <v>0.9160779278678314</v>
       </c>
       <c r="N13">
-        <v>1.013617034894785</v>
+        <v>0.9708160094506496</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024472837959735</v>
+        <v>0.8815772292666418</v>
       </c>
       <c r="D14">
-        <v>1.025163425298077</v>
+        <v>1.022673434071068</v>
       </c>
       <c r="E14">
-        <v>1.033155970530062</v>
+        <v>0.9064892995739275</v>
       </c>
       <c r="F14">
-        <v>1.040332248738053</v>
+        <v>0.9015643116167845</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028196389426981</v>
+        <v>1.045558160746259</v>
       </c>
       <c r="J14">
-        <v>1.031124889223288</v>
+        <v>0.9169101229006718</v>
       </c>
       <c r="K14">
-        <v>1.028774938309027</v>
+        <v>1.037196491250169</v>
       </c>
       <c r="L14">
-        <v>1.036737382070019</v>
+        <v>0.9234396315964327</v>
       </c>
       <c r="M14">
-        <v>1.043887068933161</v>
+        <v>0.9186361951214299</v>
       </c>
       <c r="N14">
-        <v>1.013727993633358</v>
+        <v>0.9716858068204447</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024702040976964</v>
+        <v>0.8833440775647812</v>
       </c>
       <c r="D15">
-        <v>1.025198029374265</v>
+        <v>1.022858667935694</v>
       </c>
       <c r="E15">
-        <v>1.033365763308621</v>
+        <v>0.9080445473252724</v>
       </c>
       <c r="F15">
-        <v>1.040564001381583</v>
+        <v>0.9032662328231837</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028195573671256</v>
+        <v>1.045596819989582</v>
       </c>
       <c r="J15">
-        <v>1.031315074403884</v>
+        <v>0.918340334406852</v>
       </c>
       <c r="K15">
-        <v>1.028789675730796</v>
+        <v>1.037292397812508</v>
       </c>
       <c r="L15">
-        <v>1.036926835544606</v>
+        <v>0.9248542165661253</v>
       </c>
       <c r="M15">
-        <v>1.044098568512557</v>
+        <v>0.9201924332920101</v>
       </c>
       <c r="N15">
-        <v>1.013796284965319</v>
+        <v>0.97221498700168</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02603390762909</v>
+        <v>0.8932984378344815</v>
       </c>
       <c r="D16">
-        <v>1.025399320714895</v>
+        <v>1.023929401978527</v>
       </c>
       <c r="E16">
-        <v>1.034584864946816</v>
+        <v>0.9168170417698941</v>
       </c>
       <c r="F16">
-        <v>1.041910920141611</v>
+        <v>0.9128654815013666</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028190216864643</v>
+        <v>1.045816039370124</v>
       </c>
       <c r="J16">
-        <v>1.032419879352862</v>
+        <v>0.9264006371870872</v>
       </c>
       <c r="K16">
-        <v>1.028875045105079</v>
+        <v>1.037844189381429</v>
       </c>
       <c r="L16">
-        <v>1.038027428624988</v>
+        <v>0.9328285538583375</v>
       </c>
       <c r="M16">
-        <v>1.04532749814416</v>
+        <v>0.9289669270623222</v>
       </c>
       <c r="N16">
-        <v>1.014192648055195</v>
+        <v>0.9751993268199132</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02686745018941</v>
+        <v>0.8992773124888894</v>
       </c>
       <c r="D17">
-        <v>1.025525478374841</v>
+        <v>1.024594555421631</v>
       </c>
       <c r="E17">
-        <v>1.035347855050772</v>
+        <v>0.9220942304035652</v>
       </c>
       <c r="F17">
-        <v>1.042754090270336</v>
+        <v>0.9186397130791977</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028186319765488</v>
+        <v>1.045948454076321</v>
       </c>
       <c r="J17">
-        <v>1.03311102144153</v>
+        <v>0.931243612712083</v>
       </c>
       <c r="K17">
-        <v>1.02892823368536</v>
+        <v>1.038184670434248</v>
       </c>
       <c r="L17">
-        <v>1.038715969682559</v>
+        <v>0.9376215732635735</v>
       </c>
       <c r="M17">
-        <v>1.046096560209594</v>
+        <v>0.9342423605235711</v>
       </c>
       <c r="N17">
-        <v>1.014440296640642</v>
+        <v>0.9769938506536487</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027352967761147</v>
+        <v>0.9026778829155595</v>
       </c>
       <c r="D18">
-        <v>1.025599024633332</v>
+        <v>1.024980202627936</v>
       </c>
       <c r="E18">
-        <v>1.035792284708298</v>
+        <v>0.9250983657589542</v>
       </c>
       <c r="F18">
-        <v>1.043245289960371</v>
+        <v>0.9219267607558134</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02818385285959</v>
+        <v>1.046023855691627</v>
       </c>
       <c r="J18">
-        <v>1.033513487843186</v>
+        <v>0.9339985713914329</v>
       </c>
       <c r="K18">
-        <v>1.02895912692504</v>
+        <v>1.038381239943934</v>
       </c>
       <c r="L18">
-        <v>1.039116933547572</v>
+        <v>0.9403486750473913</v>
       </c>
       <c r="M18">
-        <v>1.046544498368184</v>
+        <v>0.9372444943333256</v>
       </c>
       <c r="N18">
-        <v>1.014584396272636</v>
+        <v>0.9780150546377693</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027518403541067</v>
+        <v>0.9038234088435781</v>
       </c>
       <c r="D19">
-        <v>1.025624095254975</v>
+        <v>1.025111305138276</v>
       </c>
       <c r="E19">
-        <v>1.035943721312831</v>
+        <v>0.9261107746976166</v>
       </c>
       <c r="F19">
-        <v>1.043412674438442</v>
+        <v>0.9230345120150575</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028182978809425</v>
+        <v>1.046049254932268</v>
       </c>
       <c r="J19">
-        <v>1.033650606598615</v>
+        <v>0.9349266757720869</v>
       </c>
       <c r="K19">
-        <v>1.028969638492465</v>
+        <v>1.038447921787886</v>
       </c>
       <c r="L19">
-        <v>1.039253542438254</v>
+        <v>0.94126748590909</v>
       </c>
       <c r="M19">
-        <v>1.04669712568265</v>
+        <v>0.9382560638659387</v>
       </c>
       <c r="N19">
-        <v>1.014633471543508</v>
+        <v>0.9783591359048142</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026778088910315</v>
+        <v>0.8986449962393915</v>
       </c>
       <c r="D20">
-        <v>1.025511946906639</v>
+        <v>1.024523431589315</v>
       </c>
       <c r="E20">
-        <v>1.035266056715309</v>
+        <v>0.9215358398098855</v>
       </c>
       <c r="F20">
-        <v>1.042663689154085</v>
+        <v>0.9180287347823006</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028186757925705</v>
+        <v>1.045934436955818</v>
       </c>
       <c r="J20">
-        <v>1.033036937450378</v>
+        <v>0.9307313770056428</v>
       </c>
       <c r="K20">
-        <v>1.028922540567341</v>
+        <v>1.038148349877796</v>
       </c>
       <c r="L20">
-        <v>1.038642163243583</v>
+        <v>0.9371145617617133</v>
       </c>
       <c r="M20">
-        <v>1.046014113847933</v>
+        <v>0.9336842615670902</v>
       </c>
       <c r="N20">
-        <v>1.014413762527972</v>
+        <v>0.9768040039104221</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024363253327552</v>
+        <v>0.8807265736021005</v>
       </c>
       <c r="D21">
-        <v>1.025146884520153</v>
+        <v>1.022584771977218</v>
       </c>
       <c r="E21">
-        <v>1.03305566662043</v>
+        <v>0.9057407197589111</v>
       </c>
       <c r="F21">
-        <v>1.040221449297817</v>
+        <v>0.9007451206861368</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028196768571165</v>
+        <v>1.045539581499645</v>
       </c>
       <c r="J21">
-        <v>1.03103395356437</v>
+        <v>0.9162215964727228</v>
       </c>
       <c r="K21">
-        <v>1.028767887494854</v>
+        <v>1.037150539886922</v>
       </c>
       <c r="L21">
-        <v>1.036646796958579</v>
+        <v>0.9227586684903758</v>
       </c>
       <c r="M21">
-        <v>1.043785947385488</v>
+        <v>0.9178870706121638</v>
       </c>
       <c r="N21">
-        <v>1.01369533448756</v>
+        <v>0.9714310934524549</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022838626403462</v>
+        <v>0.8684672939090626</v>
       </c>
       <c r="D22">
-        <v>1.024917017289605</v>
+        <v>1.02134462109487</v>
       </c>
       <c r="E22">
-        <v>1.031660192195374</v>
+        <v>0.8949672748286247</v>
       </c>
       <c r="F22">
-        <v>1.038680200795731</v>
+        <v>0.8889542587254339</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028201323127522</v>
+        <v>1.045274738750163</v>
       </c>
       <c r="J22">
-        <v>1.029768393883549</v>
+        <v>0.9063032408825058</v>
       </c>
       <c r="K22">
-        <v>1.028669484195791</v>
+        <v>1.036504773176328</v>
       </c>
       <c r="L22">
-        <v>1.035386161784353</v>
+        <v>0.9129522177330645</v>
       </c>
       <c r="M22">
-        <v>1.042378990933125</v>
+        <v>0.9071009122119731</v>
       </c>
       <c r="N22">
-        <v>1.013240407459075</v>
+        <v>0.9677652654418624</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023647471882663</v>
+        <v>0.8750727083741099</v>
       </c>
       <c r="D23">
-        <v>1.025038905493158</v>
+        <v>1.022004076002786</v>
       </c>
       <c r="E23">
-        <v>1.032400512166615</v>
+        <v>0.9007686438584472</v>
       </c>
       <c r="F23">
-        <v>1.039497799546493</v>
+        <v>0.8953037939328511</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028199073251875</v>
+        <v>1.045416711806118</v>
       </c>
       <c r="J23">
-        <v>1.030439889504659</v>
+        <v>0.9116462759448932</v>
       </c>
       <c r="K23">
-        <v>1.028721759700692</v>
+        <v>1.036848857809568</v>
       </c>
       <c r="L23">
-        <v>1.036055033862706</v>
+        <v>0.9182342793467789</v>
       </c>
       <c r="M23">
-        <v>1.043125427002243</v>
+        <v>0.9129102582731295</v>
       </c>
       <c r="N23">
-        <v>1.013481881958444</v>
+        <v>0.9697392394637476</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026818469506129</v>
+        <v>0.898930978904537</v>
       </c>
       <c r="D24">
-        <v>1.025518061316702</v>
+        <v>1.024555576572009</v>
       </c>
       <c r="E24">
-        <v>1.035303019744479</v>
+        <v>0.921788379298213</v>
       </c>
       <c r="F24">
-        <v>1.042704539402101</v>
+        <v>0.9183050578540867</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028186560538906</v>
+        <v>1.045940776355194</v>
       </c>
       <c r="J24">
-        <v>1.033070414871011</v>
+        <v>0.9309630485402164</v>
       </c>
       <c r="K24">
-        <v>1.028925113446604</v>
+        <v>1.038164767837821</v>
       </c>
       <c r="L24">
-        <v>1.038675515205249</v>
+        <v>0.9373438687776559</v>
       </c>
       <c r="M24">
-        <v>1.046051369794693</v>
+        <v>0.9339366722733268</v>
       </c>
       <c r="N24">
-        <v>1.01442575323124</v>
+        <v>0.976889865747215</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030471933579147</v>
+        <v>0.9232517713609103</v>
       </c>
       <c r="D25">
-        <v>1.026072541693807</v>
+        <v>1.027425357429848</v>
       </c>
       <c r="E25">
-        <v>1.03864741647204</v>
+        <v>0.9433130748662576</v>
       </c>
       <c r="F25">
-        <v>1.046402085227728</v>
+        <v>0.9418578224267292</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028164434695646</v>
+        <v>1.046477018129713</v>
       </c>
       <c r="J25">
-        <v>1.03609700809811</v>
+        <v>0.9506700370390733</v>
       </c>
       <c r="K25">
-        <v>1.029155958733625</v>
+        <v>1.039612341487525</v>
       </c>
       <c r="L25">
-        <v>1.041691023941352</v>
+        <v>0.9568601134378953</v>
       </c>
       <c r="M25">
-        <v>1.049421663745579</v>
+        <v>0.955431171671702</v>
       </c>
       <c r="N25">
-        <v>1.015507385343153</v>
+        <v>0.9841981867300597</v>
       </c>
     </row>
   </sheetData>
